--- a/datasheets/multiset/recursions_ms_raw_1.xlsx
+++ b/datasheets/multiset/recursions_ms_raw_1.xlsx
@@ -484,13 +484,13 @@
         <v>8192</v>
       </c>
       <c r="E2" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="F2" t="n">
-        <v>6219</v>
+        <v>6350</v>
       </c>
       <c r="G2" t="n">
-        <v>2726</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>8192</v>
       </c>
       <c r="D3" t="n">
-        <v>8192</v>
+        <v>6902</v>
       </c>
       <c r="E3" t="n">
-        <v>8218</v>
+        <v>8192</v>
       </c>
       <c r="F3" t="n">
-        <v>4012</v>
+        <v>6230</v>
       </c>
       <c r="G3" t="n">
-        <v>1645</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         <v>8192</v>
       </c>
       <c r="D4" t="n">
-        <v>7636</v>
+        <v>8192</v>
       </c>
       <c r="E4" t="n">
-        <v>8192</v>
+        <v>7481</v>
       </c>
       <c r="F4" t="n">
-        <v>6187</v>
+        <v>5633</v>
       </c>
       <c r="G4" t="n">
-        <v>1933</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5">
@@ -550,16 +550,16 @@
         <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>8203</v>
+        <v>8199</v>
       </c>
       <c r="E5" t="n">
         <v>8192</v>
       </c>
       <c r="F5" t="n">
-        <v>4031</v>
+        <v>6135</v>
       </c>
       <c r="G5" t="n">
-        <v>1784</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E6" t="n">
-        <v>8208</v>
+        <v>8200</v>
       </c>
       <c r="F6" t="n">
-        <v>6157</v>
+        <v>5992</v>
       </c>
       <c r="G6" t="n">
-        <v>1975</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="7">
@@ -596,16 +596,16 @@
         <v>8192</v>
       </c>
       <c r="D7" t="n">
-        <v>7323</v>
+        <v>8192</v>
       </c>
       <c r="E7" t="n">
-        <v>7920</v>
+        <v>7659</v>
       </c>
       <c r="F7" t="n">
-        <v>4080</v>
+        <v>8304</v>
       </c>
       <c r="G7" t="n">
-        <v>2841</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="8">
@@ -622,13 +622,13 @@
         <v>8192</v>
       </c>
       <c r="E8" t="n">
-        <v>6569</v>
+        <v>8207</v>
       </c>
       <c r="F8" t="n">
-        <v>6345</v>
+        <v>6201</v>
       </c>
       <c r="G8" t="n">
-        <v>2903</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9">
@@ -642,16 +642,16 @@
         <v>8192</v>
       </c>
       <c r="D9" t="n">
-        <v>8203</v>
+        <v>8194</v>
       </c>
       <c r="E9" t="n">
-        <v>8192</v>
+        <v>6651</v>
       </c>
       <c r="F9" t="n">
-        <v>5964</v>
+        <v>6072</v>
       </c>
       <c r="G9" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10">
@@ -665,16 +665,16 @@
         <v>8192</v>
       </c>
       <c r="D10" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="E10" t="n">
-        <v>7269</v>
+        <v>8192</v>
       </c>
       <c r="F10" t="n">
-        <v>6172</v>
+        <v>6179</v>
       </c>
       <c r="G10" t="n">
-        <v>516</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="11">
@@ -688,16 +688,16 @@
         <v>8192</v>
       </c>
       <c r="D11" t="n">
-        <v>8192</v>
+        <v>8200</v>
       </c>
       <c r="E11" t="n">
-        <v>8192</v>
+        <v>7129</v>
       </c>
       <c r="F11" t="n">
-        <v>6292</v>
+        <v>5984</v>
       </c>
       <c r="G11" t="n">
-        <v>2865</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="12">
@@ -711,16 +711,16 @@
         <v>8192</v>
       </c>
       <c r="D12" t="n">
-        <v>8192</v>
+        <v>8198</v>
       </c>
       <c r="E12" t="n">
-        <v>8227</v>
+        <v>8028</v>
       </c>
       <c r="F12" t="n">
-        <v>8292</v>
+        <v>6103</v>
       </c>
       <c r="G12" t="n">
-        <v>1886</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13">
@@ -734,16 +734,16 @@
         <v>8192</v>
       </c>
       <c r="D13" t="n">
-        <v>8192</v>
+        <v>6516</v>
       </c>
       <c r="E13" t="n">
-        <v>7082</v>
+        <v>6908</v>
       </c>
       <c r="F13" t="n">
-        <v>8471</v>
+        <v>6481</v>
       </c>
       <c r="G13" t="n">
-        <v>900</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="14">
@@ -757,16 +757,16 @@
         <v>8192</v>
       </c>
       <c r="D14" t="n">
-        <v>8192</v>
+        <v>7947</v>
       </c>
       <c r="E14" t="n">
-        <v>7199</v>
+        <v>8192</v>
       </c>
       <c r="F14" t="n">
-        <v>6179</v>
+        <v>8276</v>
       </c>
       <c r="G14" t="n">
-        <v>2939</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="15">
@@ -780,16 +780,16 @@
         <v>8192</v>
       </c>
       <c r="D15" t="n">
-        <v>8156</v>
+        <v>7683</v>
       </c>
       <c r="E15" t="n">
-        <v>7427</v>
+        <v>8192</v>
       </c>
       <c r="F15" t="n">
-        <v>6136</v>
+        <v>3968</v>
       </c>
       <c r="G15" t="n">
-        <v>1777</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="16">
@@ -806,13 +806,13 @@
         <v>8201</v>
       </c>
       <c r="E16" t="n">
-        <v>8202</v>
+        <v>8072</v>
       </c>
       <c r="F16" t="n">
-        <v>6106</v>
+        <v>5619</v>
       </c>
       <c r="G16" t="n">
-        <v>1975</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="17">
@@ -826,16 +826,16 @@
         <v>8192</v>
       </c>
       <c r="D17" t="n">
-        <v>8192</v>
+        <v>6845</v>
       </c>
       <c r="E17" t="n">
-        <v>8205</v>
+        <v>6878</v>
       </c>
       <c r="F17" t="n">
-        <v>8501</v>
+        <v>6293</v>
       </c>
       <c r="G17" t="n">
-        <v>1519</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18">
@@ -849,16 +849,16 @@
         <v>8192</v>
       </c>
       <c r="D18" t="n">
-        <v>8192</v>
+        <v>8203</v>
       </c>
       <c r="E18" t="n">
-        <v>8199</v>
+        <v>7556</v>
       </c>
       <c r="F18" t="n">
-        <v>4063</v>
+        <v>6028</v>
       </c>
       <c r="G18" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="19">
@@ -875,13 +875,13 @@
         <v>8192</v>
       </c>
       <c r="E19" t="n">
-        <v>8192</v>
+        <v>7145</v>
       </c>
       <c r="F19" t="n">
-        <v>6520</v>
+        <v>6069</v>
       </c>
       <c r="G19" t="n">
-        <v>1941</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="20">
@@ -895,16 +895,16 @@
         <v>8192</v>
       </c>
       <c r="D20" t="n">
-        <v>7569</v>
+        <v>8192</v>
       </c>
       <c r="E20" t="n">
-        <v>8225</v>
+        <v>8154</v>
       </c>
       <c r="F20" t="n">
-        <v>8238</v>
+        <v>6200</v>
       </c>
       <c r="G20" t="n">
-        <v>1650</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="21">
@@ -924,10 +924,10 @@
         <v>7044</v>
       </c>
       <c r="F21" t="n">
-        <v>3967</v>
+        <v>6010</v>
       </c>
       <c r="G21" t="n">
-        <v>1760</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="22">
@@ -941,16 +941,16 @@
         <v>8192</v>
       </c>
       <c r="D22" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E22" t="n">
-        <v>8192</v>
+        <v>8201</v>
       </c>
       <c r="F22" t="n">
-        <v>6196</v>
+        <v>4075</v>
       </c>
       <c r="G22" t="n">
-        <v>2772</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="23">
@@ -964,16 +964,16 @@
         <v>8192</v>
       </c>
       <c r="D23" t="n">
-        <v>8192</v>
+        <v>8197</v>
       </c>
       <c r="E23" t="n">
-        <v>8208</v>
+        <v>8192</v>
       </c>
       <c r="F23" t="n">
-        <v>6121</v>
+        <v>6037</v>
       </c>
       <c r="G23" t="n">
-        <v>1959</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="24">
@@ -987,16 +987,16 @@
         <v>8192</v>
       </c>
       <c r="D24" t="n">
-        <v>8202</v>
+        <v>8197</v>
       </c>
       <c r="E24" t="n">
-        <v>8211</v>
+        <v>8192</v>
       </c>
       <c r="F24" t="n">
-        <v>6091</v>
+        <v>6335</v>
       </c>
       <c r="G24" t="n">
-        <v>1521</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="25">
@@ -1010,16 +1010,16 @@
         <v>8192</v>
       </c>
       <c r="D25" t="n">
-        <v>8199</v>
+        <v>8192</v>
       </c>
       <c r="E25" t="n">
-        <v>8192</v>
+        <v>7598</v>
       </c>
       <c r="F25" t="n">
-        <v>6397</v>
+        <v>4060</v>
       </c>
       <c r="G25" t="n">
-        <v>1523</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="26">
@@ -1033,16 +1033,16 @@
         <v>8192</v>
       </c>
       <c r="D26" t="n">
-        <v>6678</v>
+        <v>8192</v>
       </c>
       <c r="E26" t="n">
-        <v>8201</v>
+        <v>7934</v>
       </c>
       <c r="F26" t="n">
-        <v>6105</v>
+        <v>8278</v>
       </c>
       <c r="G26" t="n">
-        <v>1906</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="27">
@@ -1056,16 +1056,16 @@
         <v>8192</v>
       </c>
       <c r="D27" t="n">
-        <v>8192</v>
+        <v>8204</v>
       </c>
       <c r="E27" t="n">
-        <v>7045</v>
+        <v>8198</v>
       </c>
       <c r="F27" t="n">
-        <v>5889</v>
+        <v>6165</v>
       </c>
       <c r="G27" t="n">
-        <v>2783</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="28">
@@ -1079,16 +1079,16 @@
         <v>8192</v>
       </c>
       <c r="D28" t="n">
-        <v>7021</v>
+        <v>8124</v>
       </c>
       <c r="E28" t="n">
-        <v>8192</v>
+        <v>8216</v>
       </c>
       <c r="F28" t="n">
-        <v>6174</v>
+        <v>4064</v>
       </c>
       <c r="G28" t="n">
-        <v>1479</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="29">
@@ -1102,16 +1102,16 @@
         <v>8192</v>
       </c>
       <c r="D29" t="n">
-        <v>7287</v>
+        <v>8192</v>
       </c>
       <c r="E29" t="n">
-        <v>8212</v>
+        <v>8192</v>
       </c>
       <c r="F29" t="n">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="G29" t="n">
-        <v>3411</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="30">
@@ -1125,16 +1125,16 @@
         <v>8192</v>
       </c>
       <c r="D30" t="n">
-        <v>6375</v>
+        <v>8192</v>
       </c>
       <c r="E30" t="n">
-        <v>7153</v>
+        <v>8202</v>
       </c>
       <c r="F30" t="n">
-        <v>5954</v>
+        <v>8246</v>
       </c>
       <c r="G30" t="n">
-        <v>1019</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="31">
@@ -1148,16 +1148,16 @@
         <v>8192</v>
       </c>
       <c r="D31" t="n">
-        <v>8186</v>
+        <v>6622</v>
       </c>
       <c r="E31" t="n">
         <v>8192</v>
       </c>
       <c r="F31" t="n">
-        <v>8352</v>
+        <v>4066</v>
       </c>
       <c r="G31" t="n">
-        <v>2517</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32">
@@ -1171,16 +1171,16 @@
         <v>8192</v>
       </c>
       <c r="D32" t="n">
-        <v>8192</v>
+        <v>8096</v>
       </c>
       <c r="E32" t="n">
-        <v>8215</v>
+        <v>7799</v>
       </c>
       <c r="F32" t="n">
-        <v>8383</v>
+        <v>4092</v>
       </c>
       <c r="G32" t="n">
-        <v>1529</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="33">
@@ -1194,16 +1194,16 @@
         <v>8192</v>
       </c>
       <c r="D33" t="n">
-        <v>8192</v>
+        <v>6984</v>
       </c>
       <c r="E33" t="n">
-        <v>8214</v>
+        <v>8192</v>
       </c>
       <c r="F33" t="n">
-        <v>6435</v>
+        <v>6098</v>
       </c>
       <c r="G33" t="n">
-        <v>1913</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="34">
@@ -1220,13 +1220,13 @@
         <v>8192</v>
       </c>
       <c r="E34" t="n">
-        <v>7604</v>
+        <v>7567</v>
       </c>
       <c r="F34" t="n">
-        <v>5884</v>
+        <v>6080</v>
       </c>
       <c r="G34" t="n">
-        <v>1765</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="35">
@@ -1240,16 +1240,16 @@
         <v>8192</v>
       </c>
       <c r="D35" t="n">
-        <v>8197</v>
+        <v>7573</v>
       </c>
       <c r="E35" t="n">
-        <v>7127</v>
+        <v>6900</v>
       </c>
       <c r="F35" t="n">
-        <v>3964</v>
+        <v>6128</v>
       </c>
       <c r="G35" t="n">
-        <v>1775</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="36">
@@ -1266,13 +1266,13 @@
         <v>8192</v>
       </c>
       <c r="E36" t="n">
-        <v>7116</v>
+        <v>8192</v>
       </c>
       <c r="F36" t="n">
-        <v>6122</v>
+        <v>6158</v>
       </c>
       <c r="G36" t="n">
-        <v>1904</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="37">
@@ -1286,16 +1286,16 @@
         <v>8192</v>
       </c>
       <c r="D37" t="n">
-        <v>8203</v>
+        <v>8192</v>
       </c>
       <c r="E37" t="n">
         <v>8192</v>
       </c>
       <c r="F37" t="n">
-        <v>4097</v>
+        <v>8486</v>
       </c>
       <c r="G37" t="n">
-        <v>1780</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38">
@@ -1309,16 +1309,16 @@
         <v>8192</v>
       </c>
       <c r="D38" t="n">
-        <v>8199</v>
+        <v>8202</v>
       </c>
       <c r="E38" t="n">
-        <v>8199</v>
+        <v>8077</v>
       </c>
       <c r="F38" t="n">
-        <v>8253</v>
+        <v>6510</v>
       </c>
       <c r="G38" t="n">
-        <v>2515</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="39">
@@ -1332,16 +1332,16 @@
         <v>8192</v>
       </c>
       <c r="D39" t="n">
-        <v>8201</v>
+        <v>8192</v>
       </c>
       <c r="E39" t="n">
-        <v>8205</v>
+        <v>7938</v>
       </c>
       <c r="F39" t="n">
-        <v>6168</v>
+        <v>6171</v>
       </c>
       <c r="G39" t="n">
-        <v>1283</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="40">
@@ -1358,13 +1358,13 @@
         <v>8192</v>
       </c>
       <c r="E40" t="n">
-        <v>7387</v>
+        <v>8042</v>
       </c>
       <c r="F40" t="n">
-        <v>8268</v>
+        <v>6059</v>
       </c>
       <c r="G40" t="n">
-        <v>1936</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="41">
@@ -1378,16 +1378,16 @@
         <v>8192</v>
       </c>
       <c r="D41" t="n">
-        <v>6780</v>
+        <v>8192</v>
       </c>
       <c r="E41" t="n">
-        <v>8192</v>
+        <v>8205</v>
       </c>
       <c r="F41" t="n">
-        <v>8260</v>
+        <v>8313</v>
       </c>
       <c r="G41" t="n">
-        <v>1411</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="42">
@@ -1401,16 +1401,16 @@
         <v>8192</v>
       </c>
       <c r="D42" t="n">
-        <v>7343</v>
+        <v>8192</v>
       </c>
       <c r="E42" t="n">
-        <v>8192</v>
+        <v>7523</v>
       </c>
       <c r="F42" t="n">
-        <v>6473</v>
+        <v>8366</v>
       </c>
       <c r="G42" t="n">
-        <v>994</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="43">
@@ -1424,16 +1424,16 @@
         <v>8192</v>
       </c>
       <c r="D43" t="n">
-        <v>7297</v>
+        <v>8195</v>
       </c>
       <c r="E43" t="n">
-        <v>8198</v>
+        <v>7088</v>
       </c>
       <c r="F43" t="n">
-        <v>5823</v>
+        <v>6018</v>
       </c>
       <c r="G43" t="n">
-        <v>1532</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="44">
@@ -1447,16 +1447,16 @@
         <v>8192</v>
       </c>
       <c r="D44" t="n">
-        <v>7663</v>
+        <v>8192</v>
       </c>
       <c r="E44" t="n">
-        <v>7237</v>
+        <v>8192</v>
       </c>
       <c r="F44" t="n">
-        <v>8352</v>
+        <v>6015</v>
       </c>
       <c r="G44" t="n">
-        <v>1531</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="45">
@@ -1473,13 +1473,13 @@
         <v>8192</v>
       </c>
       <c r="E45" t="n">
-        <v>8192</v>
+        <v>8173</v>
       </c>
       <c r="F45" t="n">
-        <v>4031</v>
+        <v>4034</v>
       </c>
       <c r="G45" t="n">
-        <v>2425</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="46">
@@ -1493,16 +1493,16 @@
         <v>8192</v>
       </c>
       <c r="D46" t="n">
-        <v>8198</v>
+        <v>8192</v>
       </c>
       <c r="E46" t="n">
-        <v>8053</v>
+        <v>6641</v>
       </c>
       <c r="F46" t="n">
-        <v>6128</v>
+        <v>6121</v>
       </c>
       <c r="G46" t="n">
-        <v>900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="47">
@@ -1516,16 +1516,16 @@
         <v>8192</v>
       </c>
       <c r="D47" t="n">
-        <v>8199</v>
+        <v>6899</v>
       </c>
       <c r="E47" t="n">
-        <v>6595</v>
+        <v>8206</v>
       </c>
       <c r="F47" t="n">
-        <v>6142</v>
+        <v>6313</v>
       </c>
       <c r="G47" t="n">
-        <v>1018</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="48">
@@ -1539,16 +1539,16 @@
         <v>8192</v>
       </c>
       <c r="D48" t="n">
-        <v>8205</v>
+        <v>8192</v>
       </c>
       <c r="E48" t="n">
-        <v>8200</v>
+        <v>7765</v>
       </c>
       <c r="F48" t="n">
-        <v>6130</v>
+        <v>5826</v>
       </c>
       <c r="G48" t="n">
-        <v>516</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="49">
@@ -1562,16 +1562,16 @@
         <v>8192</v>
       </c>
       <c r="D49" t="n">
-        <v>8204</v>
+        <v>8195</v>
       </c>
       <c r="E49" t="n">
-        <v>6400</v>
+        <v>7139</v>
       </c>
       <c r="F49" t="n">
-        <v>6000</v>
+        <v>5617</v>
       </c>
       <c r="G49" t="n">
-        <v>1991</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="50">
@@ -1588,13 +1588,13 @@
         <v>8192</v>
       </c>
       <c r="E50" t="n">
-        <v>8207</v>
+        <v>8075</v>
       </c>
       <c r="F50" t="n">
-        <v>6307</v>
+        <v>6016</v>
       </c>
       <c r="G50" t="n">
-        <v>2930</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="51">
@@ -1611,13 +1611,13 @@
         <v>8192</v>
       </c>
       <c r="E51" t="n">
-        <v>7775</v>
+        <v>8198</v>
       </c>
       <c r="F51" t="n">
-        <v>6281</v>
+        <v>6020</v>
       </c>
       <c r="G51" t="n">
-        <v>2433</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
